--- a/data/hotels_by_city/Dallas/Dallas_shard_684.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_684.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="996">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ESPBennett</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sal_Paradise767</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r579102375-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -219,6 +225,9 @@
 My rate was $100 which was pretty...Stay Report - 5/7 - 5/8Location: The hotel is located on Lamar Blvd. just west of the intersection of TX-360 and I-30.  Nearby area  number of restaurants and bars, some of which are open until midnight.  Just across the street is Six Flags Hurricane Harbor, a water park.  Across the interstate is Six Flags Over Texas, The Ballpark at Arlington and the Dallas Cowboys Stadium.  DFW is an easy 10 minute drive if there's no traffic.  Hotel: One of the stranger SHS locations I've been to.  It's a three story brick building that seems like a former Hampton Inn or similar.  It's also currently under renovation which makes it pretty miserable to stay at.  The parking lot is large enough but right now one elevator is out of service, half of the lobby is walled off, the work makes the hotel loud and it smells strongly of paint.  They have a local shuttle which will take you to nearby places. Check In: Handled quickly by a friendly agent who thanked me for being a Gold and explained how everything worked.  Room: Pretty standard SHS room with a work area, kitchenette, living room area and the normal separate sink from shower style bathroom.  As I said it smelled strongly of paint.Breakfast: Due to the renovations breakfast was pretty limited.  Scrambled eggs, bacon, some breads and yogurt and cans of juice as well as coffee but no creamers..  My rate was $100 which was pretty good and it worked well for my purposes but I recommend not staying here until the renovations are doneMore</t>
   </si>
   <si>
+    <t>Shane M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r574176430-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>As part of a simple 1 night stay in Dallas, we decided to book a night at the Springhill in Arlington. Not only was the rate great, they offered extra bonus points for booking it.The location is fantastic. It's right near the ballpark, the football stadium, Six Flags and Hurricane Harbor.  In fact, the hotel had Texas Rangers calendars out to see when the games were.Once we arrived, the friendly staff checked me in. They were celebrating National Grilled Cheese Day and were offering them for free to guests.  Nice touch.After we received our keys, we went up to our room which was decent.  The typical Springhill bed, which is ok, a bathroom with a standup shower, sink and toilet, and living room with a couch and sink area. While not quite the extensive kitchen like a Residence Inn, it sufficed.We asked for a pack and play for the baby and it was in the room waiting for us as I requested it after booking. The wifi was good when it worked. The connect by room part didn't work but luckily the front desk gave me a code which worked.Checkout was smooth and efficient. For what it is, I don't think you can disappointed in it. It's a no frills property and the staff really elevate it as far as they can take it.More</t>
   </si>
   <si>
+    <t>StwBuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r565838884-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>DanielJames2273</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r561830621-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Tom S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r555711053-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>buckranger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r548435598-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Sadly this hotel needs some major remodeling. (Which I understand they are doing now)Our room experience was disappointing.  The carpet was old and very stained. (2 queen beds) One mattress was newer and the other lumpy. The vanity was very small with the shower/toilet area very dimly lit. They did have a microwave and refrigerator. For the breakfast, the waffle iron was not out on the weekday but was out on Saturday.  The staff was very friendly but I would wait until the remodel is done to stay there.  Great locationMore</t>
   </si>
   <si>
+    <t>bregitteg2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r542237767-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>KC_Donkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r539563978-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>Clean hotel (room and common areas) and friendly staff.  The breakfast bar was extra busy on Sunday morning of the Cowboys game, but the staff kept everything clean and the food available.  One staffer manned the waffle machine with a smile.It is just under a 2 mile walk to AT&amp;T Stadium.  The streets were safe with sidewalks on at least one side of each road.  No need to drive or get talked into the 3rd party shuttle.  Besides, the post game traffic is terrible, so the walk is worth it!I highly recommend this hotel for anyone making the trip to AT&amp;T Stadium.</t>
   </si>
   <si>
+    <t>luvtotravel05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r522945736-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>Let's me start with the staff was out standing and friendly. But our room was out dated with carpet stains, stains on the sofa and pillows. The room was very dark and very easy to tell they have not been up dated, few places plug in phone's or iPad.Breakfast staff was very friendly but the food options were poor. Do not know how they tasted did not partake because they just did not look good.Pool was closed because lift was broken so no one could swim ( seams dumb to me ).Nice location but we will not staying again unless changes are made.I really can't believe they have been able to keep the Marriott Name. More</t>
   </si>
   <si>
+    <t>Julie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r522740824-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>Arrived to room and it smelled of mold and urine... notified front desk and were told they would be up to look at the room in 5 minutes, an hour later we hadn't seen anyone so called front desk and someone will be up... still nothing. Thanks to Joshua at midnight we finally got some room spray. Will be talking to management tomorrow. More</t>
   </si>
   <si>
+    <t>Pete B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r516080069-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
     <t>This is a good place to stay if you're going to the Cowboys games, along with the baseball place (yawn yawn) and Six Flags.Rooms are fairly clean and spacious but very basic. Though our friends did say their carpet was pretty discusting.Reception staff were friendly.More</t>
   </si>
   <si>
+    <t>Ryan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r497749502-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -459,6 +498,9 @@
     <t>I stayed here around the 10 of June. Hotel is definitely showing its age! Poor blinds in the rooms which let in way too much light and making it hard to sleep.  First room I was given didn't have a working air conditioning unit, thank goodness they had another room available to give me. Furniture was very old looking, and the bathroom needed to be redone! Toilet seat was too large for the toilet making it awkward, Breakfast also was a let down compared to other springhill suites. No waffle station and them constantly running out of everything including coffee! I sent a letter to Marriott customer care and got the biggest "form letter" back from the property just goes to show you how much this hotel doesn't value its frequent guests! Probably won't stay here again if i'm in the area!More</t>
   </si>
   <si>
+    <t>BillCarolNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r497661965-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +516,9 @@
     <t>This Springhill Suites is located within a 10 minute walk to Rangers Ballpark (Globe Life Park) but we used the free trolley instead.  The rooms and decor are dated but kept clean. The front desk staff were very nice.  i would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>iv2go</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r495254170-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t xml:space="preserve">We checked in early and the front staff was great.  Got a room right away. Room was cold and inviting.  The water park is right across the street. Ballpark about 4 minutes away. The room was clean. Bead comfortable. Nice size refrigerator.  Would definitely stay again. Super nice staff.  </t>
   </si>
   <si>
+    <t>Andrew G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r484768649-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -507,6 +555,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>jeneeclayton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r480064882-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r474949631-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -540,6 +594,9 @@
     <t>The rooms were a little outdated but overall everything at the hotel was good.  The staff "Josh" at the front desk especially, was overly helpful during our stay there.  We were constantly asking questions and he always had the answer for us.  The King rooms are really big.  The breakfast was really good- bacon, eggs, trimmings.. lots to choose from. Free suckers at the front desk. A little store with everything you need.</t>
   </si>
   <si>
+    <t>Marcos1252</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r472220095-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -558,6 +615,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Tim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r465095126-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -576,6 +636,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Jennifer J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r463474341-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
     <t>Upon my arrival at 7 in the evening the gentleman behind the counter was very friendly and spoke very fast.  Told us where all the amenities were, offered us a front room view and quickly issued our keys.  My stay was not for six-flags or for the ball park.  If it had been the location was perfect for those.  Though the room seemed in order when we arrived there was construction going on.  Sawdust was everywhere walls were exposed all the way to the studs in the hall. Breakfast did not have a lot of options and was not all that good.More</t>
   </si>
   <si>
+    <t>Ted H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r455764017-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -624,6 +690,9 @@
     <t>Great personality, helpful and energetic at the front desk. The  hotel is in a great area, in view of AT&amp;T (Dallas Cowboys) Stadium, the Ballpark at Arlington, Six Flags, and Hurricane Harbor. The area immediately surrounding the hotel feels nice and safe. The hotel has a "modern" feel in the room layout. The hotel also "feels" like it may be slowly falling apart. There as an odd smell as we entered our room, probably a strong cleaner. The room was clean, but it just had a "vibe" about it that made me feel like I didn't want to touch too much. The bed was comfortable, I slept very well. The next morning in the breakfast area just made me feel uneasy. it was a normal mid-priced hotel breakfast. But there was eggs stuck all over the serving spoon adjacent to the eggs, and egg all over the countertop. The same story with the oatmeal, the toaster looked like it needed to be wiped down. There was cereal on the other counter top. I decided not to put anything cold on my plate since the area just looked unkept. There was a very nice employee working in the area keeping the area stocked, but it seemed that tidying up was not a priority. Overall, I don't have any big complaints, but I will not consider staying at this property again.More</t>
   </si>
   <si>
+    <t>Colby P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r439069676-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -648,6 +717,9 @@
     <t>The carpet in our room smelled of mildew and looked as if it had been completely drenched at some point. The furniture and decor seemed dated and everything had a kind of "older" feel to it. I wouldn't stay here again if I had a choice. I stay in a lot of hotels and I have to admit I was surprised that this one wasn't better. The breakfast was good, being a normal continental-type breakfast, and the staff was pleasant and helpful.More</t>
   </si>
   <si>
+    <t>Sugah-n-Pops</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r435157020-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -669,6 +741,9 @@
     <t>In town for the Eagles VS Cowboys game. Found the Spring Hill Suites by chance, while surfing trip advisor. The comments I read was right on point. Hotel is within walking distance of many attractions, about a 2 mile walk to AT&amp;T stadium. The staff was good to go, especially Joshua!  This guy is full of energy, and makes you feel like you have known him forever.  He sets the standard for the hotel high, once you walk through the door.  If you are in the area stop in and meet Joshua.  The breakfast was great.  They even had turkey sausage, for those of us that do not eat pork! The room was roomy and clean.  I am in the DFW area at least once a year; this is a place I will come to again.More</t>
   </si>
   <si>
+    <t>Morgan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r433405953-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -684,6 +759,9 @@
     <t>I stayed at the SpringHill Suites Dallas Arlington North in October for business and I can say I have never felt more at home at a hotel. Josh, at the front desk, was so kind and helpful. He genuinely cares about his guests and I will definitely be staying here again.</t>
   </si>
   <si>
+    <t>Lori C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r433402449-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -696,6 +774,9 @@
     <t>I was in town for business and stayed at the SpringHill Suites.  The hotel staff is very friendly and accommodating, especially Josh, ensuring that you have everything you need for your stay.  The hotel is clean, the breakfast is great and it's close to many things.  You will not be disappointed.</t>
   </si>
   <si>
+    <t>Seth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r433080816-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -723,6 +804,9 @@
     <t>The staff at SpringHill is very friendly and helpful. Josh at the front desk is so very helpful. He is extremely adamant that your stay is most comfortable and meaningful. He takes time to know his customers by name and greets everyone with a friendly welcome. The house keeping and breakfast staff are wonderful. I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Bg71291</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r424823379-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -747,6 +831,9 @@
     <t>When you check in at the Springhill, I hope you have the pleasure of being greeted by Josh.  He has the best attitude of any employee at a hotel I've ever witnessed! If he isn't the GM,  then he should be!  He understands fully what Customer Service is,  he was extremely informative, and detailed, even included the incidentals which many hotels do not tell you about.  In the morning, you will have the please of meeting Mike and the young lady that help him,  I cannot remember her name, but both are such a pleasure!  You can tell that they love their job,  and they love people.  Very willing to help with anything.  My 12 yr old son remember Mike from the last time we stayed,  and Mike recognized my son and told him how tall he had gotten.  You truly have great staff at this property!  The only downer we had was the pull out couch was dirty, which did not report because we weren't in the room much, so my daughter just slept on top of the couch with a blanket and sheet. It was not a huge deal,  everything else shadowed that one flaw.  I will continue to go back to this hotel, its one of my favorites!More</t>
   </si>
   <si>
+    <t>PhiladelphiaBrian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r419541506-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -771,6 +858,9 @@
     <t>We came for the Giants vs. Cowboys season opener. The hotel was clean and the staff was great! The hotel is only. $5 Uber ride from AT &amp; T Stadium and has a few good restaurants within walking distanceMore</t>
   </si>
   <si>
+    <t>sta2love</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r415136850-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -795,6 +885,9 @@
     <t>Absolutely loved the staff. Especially Mike the second shift manager, second shift front desk, 2nd shift clerk, breakfast guy (can't remembers the names). They all went out of their way to help and answer questions. Main question was transportation to the AT&amp;T stadium. THey offered to help with many options. We actually ended up driving to J. Gilligans and parked free, took the J. Gilligans Shuttle for $8.00 each. This was the way to go. We loved the suite, which slept 3 adults comfortably. Could see the fireworks from the rangers game from our window. Will definately stay here again.More</t>
   </si>
   <si>
+    <t>C P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r405092505-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -813,6 +906,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Tammy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r404890130-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -825,6 +921,9 @@
     <t>We stayed here while in town for a baseball game. The hotel was nicely decorated and our room was very nice. The extra room in the suites is great when you are traveling as a family. The outdoor pool was fun and the breakfast buffet was excellent.</t>
   </si>
   <si>
+    <t>pebbles97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r402642603-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -840,6 +939,9 @@
     <t>Most comfortable room, great staff  very friendly and breakfast was great. Chef came out-and announced what was for breakfast and spoke to us. Very sweet and knew his information, very helpful. His name was Harvey. Good job!</t>
   </si>
   <si>
+    <t>Krysse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r396676582-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -867,6 +969,9 @@
     <t>We stayed here one night during our trip.  The staff were very courteous, from the desk person to housekeeping.  Parking was adequate.  If we had wanted to go to the water park it was easily within walking distance.  The room was clean and updated.  The standard fridge, microwave, coffee machine were available.  Beds were a little hard, but I found that this seems to be the standard for Springhill Suites.  We had booked a single room, but the day before they noticed we had 3 people and they had someone wanting to stay over in the single we were booked for and called us to verify it would be alright to upgrade us to the double bed at no additional charge.  This was greatly appreciated.  Also, it was very quiet at night.  I noticed signs around that said they have a posted quiet time, I think it was from 10:00 pm to 7:00 am.  Most hotels there is always something going on at night, people running in or out, but this was not the case here. I had a great nights sleep and was well rested for the next day.  The breakfast was the standard, scrambled eggs, sausage, boiled eggs, multiple cereals (hot and cold), juice, coffee, waffles, muffins, etc...  They had a very large turnout for breakfast but were able to keep everything stocked up.More</t>
   </si>
   <si>
+    <t>Nicole F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r395990929-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -885,6 +990,9 @@
     <t>We have stayed here twice and love it!  Staff is friendly and helpful.  Breakfast during the week a little disappointing.  Pool area perfect for kids.  I actually forgot my personal pillows on our first trip and they held them for me until we returned.More</t>
   </si>
   <si>
+    <t>BJ D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r394369063-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -907,6 +1015,9 @@
   </si>
   <si>
     <t>I've stayed in hotels all over the country and in several countries. I've never had the customer service experience like I did this weekend. Mike and Jose did a wonderful job of greeting every patron and helping out whenever the need arose, even when patrons didn't realized they needed help. They took it upon themselves to ask how our days went, how our dinners went, and gave suggestions for local attractions and things to do. They went out of their way to ensure we enjoyed our stay. Every other hotel and hotel chain should look at them as an example. WELL DONE!More</t>
+  </si>
+  <si>
+    <t>Dawn N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r392231691-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -931,6 +1042,9 @@
 On each side of the desk and the couch are dividing walls that make you feel as though you are stepping into a "bedroom" of...So many great things about this stay - I had never stayed at a SpringHill before, normally staying at Hampton Inn or Marriott when I stay out of town - but opted for this property due to it's proximity to Hurricane Harbor - which was directly across the street.  We wanted to be able to wake up the next morning and just walk across the two lane street in our flip flops to the water park, leaving our vehicle in the hotel parking lot, avoiding the $20 Hurricane Harbor parking charge.  (Score!)  We booked two days, Friday and Saturday night.Upon arrival at SpringHill I was so very impressed with the size of the room, it was one very long room, but with the appearance of being almost 4 distinct sections due to good use of wall dividers.  When you first walk in there is a beautiful teal couch with two end tables to your left.  To your right (and a fair distance away, not cramped like most hotel rooms) is a desk facing a wall with a nice rolling desk chair, and another work table to it's left.  Opposite the desk, on the wall of the entry door is a "kitchenette", a sink, microwave, small fridge small coffee pot, glasses, and a kitchen towel.On each side of the desk and the couch are dividing walls that make you feel as though you are stepping into a "bedroom" of sorts, and you walk to the back of the room.  There was a large tv on the wall between the wall opposite the couch as you walked from the living room to the bedroom so that you can view it from either the couch or the bed.  You have a queen sized bed I believe, and the sink area on the other side of another dividing wall.  Through a door you have the shower and toilet.Our room was very clean, smelled fresh, and no dust or dirt anywhere.  There are plenty of normal electrical outlets for charging phones, etc but you will need to bring USB chargers, as there was one outlet for charging an Apple product but no other tech chargers on lamps, etc.  They have a small pool that said capacity 20 with 4 foot depth I believe and a hot tub with appx the same capacity, closing time was 10 pm - good amount of chairs around and towel cabinet, not very scenic but good for getting out of the Texas heat and kept very clean.What impressed me the most about my stay at this hotel was the staff.  As we came and went over the course of two days - everyone we came in contact with was so very friendly!  Everyone at the desk, to the cleaning staff in the hall who went out of their way to greet us, it was just incredible how nice everyone was.  The best part of our trip was Harvey - the gentleman who served us at the free breakfast buffet.  It is open from 6am to 10am and he works that station like it's his baby.  He greets everyone with a happy Good Morning, introducing himself, letting everyone know that he is the chef and the server and to let him know if he can get anything for them.  He is constantly checking the food, even taking plates for people - saying he wants to make sure that we are relaxed on our trip!  He had a smile on his face at 7:30 am he was so pleasant, I just smiled watching him.  Rarely do I want to write a review so badly just to let the world know how much I enjoyed staying here because of how wonderful this staff was.  I don't know if it was just an "ON" weekend for this hotel, but I WILL be staying here to find out - it was that good.Summary: Great Arlington location for business and pleasure - large clean room for great price with exceptional service.  Definitely on my *will return* list.   Employee of the Year to Harvey!More</t>
   </si>
   <si>
+    <t>cynvan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r390551745-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -955,6 +1069,9 @@
     <t>I have nothing negative to say about this hotel.Down the street from Hurricane Harbor.  Maybe a 5 minute ride to Six Flags and Rangers Stadium.The rooms were nice and spacious. The front desk personal were so helpful and friendly.The only thing I will say which is not against the hotel but the free shuttle to see the Rangers . This hotel is the last pick up so sometimes they have to go drop people off then come back to pick up at the hotel. We made it with 20 minutes to spare but would have liked to be there earlier.I would most definitely recommend Springhill Suites as a place to stay in Arlington.More</t>
   </si>
   <si>
+    <t>nontexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r390025585-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1090,9 @@
     <t>Very conveniently located near the stadium and six flags.  Check in was quick and painless and the room was very good.  Plenty of room, clean and in very good condition.  The staff was very professional, friendly and engaging.  Breakfast was good and the young man tending the breakfast area did a great job greeting folks and ensuring items were fresh and well stocked.  I will definitely stay here again if I'm in the area.  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Visilea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r387250886-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1108,9 @@
     <t>Stayed here overnight after a baseball game at Globe Life Ballpark. We checked in before the game and used the free trolley system to grab a ride to the game. Check in was a breeze. Trolley ride back to the hotel after the game was so much easier than getting into the car and battling the traffic. The room was spacious for the three of us. Bed and sleeper sofa were comfortable. Slept in the next morning and enjoyed a nice complimentary breakfast. Will stay here again!</t>
   </si>
   <si>
+    <t>dfwilliams2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r386707889-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1126,9 @@
     <t>The hotel had a swift checkin and the staff was extremely friendly. The hotel was on the trolley stop for the ballgame which was handy! Not much noise even tho our room faced the busy street.  Breakfast was great! A variety of different choices. The coffee was hot and fresh. The value was good with the Boston Red Sox in town. The only thing I have to say is there was no hair dryer in the room. It had everything else, fridge, microwave, iron..... But no hair dryer? Anyway, would definitely stay here again.</t>
   </si>
   <si>
+    <t>mikel68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r386052843-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1147,9 @@
     <t>We were in for a Steely Dan concert at the American Airlines Center.  I didn't want to stay downtown due to traffic and prices.  I can't justify $300-$400 for a one night stay in Dallas.  We stayed in a one bedroom suite, with a fridge, microwave and coffee pot.  Yes the hotel is a little older but did that did not affect our stay.  Air-conditioners worked well considering it was over a 100 degrees outside.  A small breakfast is served mornings.  There is a pool, we didn't venture out to it after the concert, it was too late.  Hotel staff very accommodating.  I'm not really a theme park fan anymore, but if you're fan a Six Flags it is right across the street.  Not so close as to cause traffic or noise though.  All in all it was a good night sleep for way less than downtown.More</t>
   </si>
   <si>
+    <t>Shelly J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r375553389-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1177,9 @@
     <t>We stayed here for a quick night before flying out.  Upon arrival the night clerk, Roosevelt, was so incredibly friendly and checked us in very quickly.  Beds were comfortable.  The hot breakfast was easy and I really wish I could remember the young mans name working that morning because he was so friendly and it was obvious he took pride in his job.  This hotel is older but if you are in Arlington for Six Flags or a sporting event I would totally recommend.  More</t>
   </si>
   <si>
+    <t>Amy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r371313696-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1198,9 @@
     <t>We were in town for a convention. The staff is very nice and accommodating. The hotel is clean. Love this location. It's right across the street from Hurricane Harbor. A very short drive to Six Flags, the convention center, Rangers Stadium, and AT&amp;T Stadium. Shopping and restaurants are really close. The hotel has a quiet  hours policy so you are guaranteed a good night's sleep.More</t>
   </si>
   <si>
+    <t>smithlexi35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r368848945-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1222,9 @@
     <t>When staying at a new hotel my expectations are low. All I really want is a clean room and shower. Staying at the Springhill Suites has raised my standards tremendously. The staff here were fantastic. I wanted and needed for nothing. Even when hanging out by the pool someone would come check on us to ask if we needed more ice for our drinks or to bring us bbq tools to use on their grill. When coming into the lobby in the morning for breakfast or to work out, we were greeted with a friendly hello like we were all old friends. I cannot express how great the staff here is. Also a great locations.More</t>
   </si>
   <si>
+    <t>Expectwhatipayfor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r362424545-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1249,9 @@
     <t>First, my  coworker and I were to sign our rooms, hers was not cleaned and she had to be assigned another one.  My room had towels hanging on the towel rack, one was dirty with some kind of candy stuck to it. My pillow had a brown stain on it -  when I brought the towel and pillow down to the front desk, he just grabbed it from me and stuck it under the counter and did not say much.  I don't think management was notified.   The breakfast area is extremely tiny, I guess under renovations? There were stains and gum like stuff stuck to the carpet in one of our rooms. This hotel is very old and the staff is friendly enough, but there is no sense of urgency when it comes to customer service and maintaining a clean hotel.  I only stay at Marriott properties, I will not use this hotel again.More</t>
   </si>
   <si>
+    <t>Tar77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r359910425-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1273,9 @@
     <t>In town for a few days on business/visit family and decided on Springhill Suites due to its great rates &amp; location, which is in Arlington's "Entertainment District". This hotel is located directly across the street from Hurricane Harbor waterpark, a short distance to Six Flags &amp; AT &amp;T Stadium, down the road from lots of places to grab a bite to eat, and about 3 min away from a neighborhood Walmart. The hotel exterior is nice and clean with ample parking. The inside décor is bright &amp; modern. I arrived a couple of hours early before "check-in" and was told no problem, room was ready! Rooms are spacious &amp; clean w/ample seating on sofa, microwaves &amp; small fridge (suite), with pretty comfortable beds. Hot breakfast in morning consist of different selections depending on the day. Oatmeal, pastries, bagels, cereal, eggs, fruit, ham (frozen) pancakes on weekdays; waffles &amp; sausage on weekends :). It was just ok, but better than nothing! Staff was pretty pleasant during my stay, but "Joshua" (front desk) was the most accommodating w/a great attitude. He definitely knows a thing about great customer service. Only negative for me was there was only one elevator for (3 floors) which is located in the main lobby. All in all this hotel was nice &amp; quiet and I would consider staying here again.More</t>
   </si>
   <si>
+    <t>Elaine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r354681971-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1150,6 +1294,9 @@
     <t>My husband and I were in town for a tradeshow at the convention center.  We actually showed up a day earlier than planned and they were able to accommodate us.  The gentleman at checkin (Roosevelt) was fantastic!  Very helpful and friendly.  The hotel was booked solid, but with the help of one of the upper managers (Greg) they were able to find a room for us.  It was an accessible room, but a room.  The room was clean and comfortable.  The only downside was that since it was an accessible room everything in it was set up for someone in a wheelchair.  It would have been nice if a couple of extra hooks were added at a regular height for non-handicapped people.  I was not able to hang up my dress pants as they would have been dragging on the floor.  The only other issue was that in the evening we had no hot water.  It was like that both nights we were there.  It was perfectly fine in the mornings.  We went down for the free breakfast the first morning we were there.  We were met by Carlos, who again, was a wonderful, helpful and friendly staff person.  We had eggs, sausage, waffles and bagels.  Most of the breakfast was good.  The eggs no so much.  Tasted powdered.I would choose to stay here again while in the area.More</t>
   </si>
   <si>
+    <t>Shae 9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r338860873-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1324,9 @@
     <t>Nice hotel. Upon arrival the front desk clerk was very nice and attentive. Knowledgeable about the hotel and area. Lobby area was under construction. Rooms are ok...needs upgrading. Older hotel. Pretty quiet when we stayed. Breakfast was horrible. Not enough food and space for everyone. Ran out quickly of everything. Wasn't spectacular but if needing somewhere to crash this is a hotel for that. More</t>
   </si>
   <si>
+    <t>Rich D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r336878498-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1351,9 @@
     <t>We recently stayed here for the Cotton Bowl game.  The staff went above and beyond to make our stay and experience a great one.  The team at Springhill seemed to genuinely enjoy serving their guests with a high level of customer service.  Our room was clean, comfortable and spacious.  The location is convenient for both Rangers &amp; AT&amp;T Stadium (we walked to both venues for tailgate and then game.)  I would highly recommend this property!More</t>
   </si>
   <si>
+    <t>Wayne R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r334101710-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1376,9 @@
   </si>
   <si>
     <t>Hotel was very decent and comfortable.  Its going through a little renovation but nothing out of this world to avoid folks from staying here.  The receptionist at the front was awesome.  I already forgot the guys name.  He was an amputee.  Very friendly and informative.  Need more like him.  Hotel is right across the street from six flags and close to AT&amp;T stadium.  Very good location.More</t>
+  </si>
+  <si>
+    <t>AWCinTexas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r315571661-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1260,6 +1416,9 @@
 I called the front desk and they immediately sent a housekeeper...I left a message for the manager the evening I checked in, 9/18.  I then followed up with the front desk the following morning, 9/19. I have yet to hear from the manager.  It's now 9/30.Let me start off by saying I am 7.5 months pregnant and being SPG properties are smoke free, they are my preferred choice hotel. However, I settled for this Springfield because it was close to the Rangers stadium, we had series tickets and Cowboys stadium, which is where my nephew played on 9/19.After entering my room I became nausea and had difficulty breathing, to the point I was forced to use my asthma inhaler.  I immediately went down to the front desk and asked for another room.  They did not have any.  I explained that my room was HOT and had a stale smoke stench.  I  was told my room would be cleaned again and done BEFORE I returned from the Rangers night game.  It was not!!  The following morning I stopped by the front desk to report the same issues and then left for my nephew's football game.  When I returned to my room that afternoon, it was in the same condition with the exception of fresh towels.  Hot,  a trash can that didn't get emptied, a bed not made,  dirty sink, and a massive amount of lint on the floor.I called the front desk and they immediately sent a housekeeper up and someone with her to watch what she was doing.  While the two women were in my room, one apologized as she personally witnessed the poor job the housekeeper had done.The following morning I packed my bags and left. I did not bother speaking to the front desk because the room was still hot and the room still stank.  Too late to fix these issues,  as my two uncomfortable nights at this property was now over.  What I did expect was follow up from management being I left them two messages.   I would like to know how Marriott plans to rectify this issue?  More importantly, why is there a $250 fee for the housekeeper being called back to do what she should have done Saturday morning; make the bed, clean the sink, vacuum and have maintenance repair the a/c?More</t>
   </si>
   <si>
+    <t>XtremeDisappointment</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r310798814-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1443,9 @@
     <t>The property is old and it shows. Basically a decent place but breakfast is below average. Rooms are clean but not up to latest standard in hotels of this size and price. It is close to the six flag attraction so that is a plus.More</t>
   </si>
   <si>
+    <t>Jrzydva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r305472360-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1473,9 @@
     <t>Great staff, very accommodating.  Free breakfast saves money for guests.  Also, great location, close to everything.  I would stay again!  It was a great choice for our family reunion.  I recommend this place to anyone on a budget.More</t>
   </si>
   <si>
+    <t>Chris W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r290220848-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1333,6 +1498,9 @@
   </si>
   <si>
     <t>The staff at this hotel was very friendly and the beds were comfortable and clean.   The location is right across the street from the 6 Flags water park, you can walk there.  There is also a Go-Cart facility next door.    A trolley can pick up right at the hotel and take you to the 6 Flags roller coaster park.    Great breakfast as well!More</t>
+  </si>
+  <si>
+    <t>ckmommy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r290188561-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1367,6 +1535,9 @@
 The pool was super busy.  The fitness center...We booked this hotel due to it being a Marriott property and being close to Six Flags over Texas.  Upon checking in, we went to find our room.  The room number i was given was incorrect. So, we were trying to get in the wrong room.  When the door opened, the lady literally started screaming at us and how awful we were.  Unbelievable!!!  There was no reason for that.  We were not banging on the door, just using the key.  If you travel a lot, it is not uncommon to have someone (or you yourself) going to the wrong room.  All 5 of my kids and I just looked at each other and slowly backed away.  We ended up in the correct room a second later.  The room was a standard Springhill Suites room.  Nothing special--a bit more worn than many other Springhill's that we have stayed in.  I think this hotel is filled up nightly.The location was very convenient to Six Flags and it's water park.  There are restaurants near by, but you will need a map and car to find them.At 10:30, there was a ton of noise in the hallway outside our room.  It seemed like a large group of family or friend hanging out.  While 10:30 is not late, I was almost asleep and these people woke me up.  They quieted down about 30 mins later.The pool was super busy.  The fitness center was small, but my husband and I were able to go for a run on the treadmill and elliptical at 5:30 am without anyone else in the fitness center.  We needed to leave early in the morning, so planned to eat breakfast right at 7 am (Saturday hours start at 7 am). We were at the breakfast room at 7 and we were not able to eat until after 7:15--due to the food not being ready.  Not that big of a deal, but did leave a bad taste before we left.  If you are looking for a close place to stay near AT&amp;T Stadium, the ballpark, or Six flags, this is a great choice--no where near a 5 star place, but it will work for a place to sleep.More</t>
   </si>
   <si>
+    <t>D S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r289024101-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1562,9 @@
     <t>This location was fabulous.  You could walk across the street and be at Hurricane Harbor.   A short shuttle ride and you are at Six Flags.  The people that work in the hotel are friendly.   However, it is time for Marriott to sink some money into the place.  There were spiders in our room, the faucet was about to fall off in the tub and the sheets were very worn and stained.  On top of that- mold was in our bathroom.   The breakfast was inedible and we ended up eating out.   I doubt I would return even though this has the potential to be a hidden gem for the corporate hotel chain.More</t>
   </si>
   <si>
+    <t>paulwhamby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r286216360-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1589,9 @@
     <t>Booked this due to its proximity to Six Flags, AT&amp;T stadium, and lots of shops, restaurants, etc.  Location did not disappoint.  So easy to get everywhere.Only down side, felt the hotel - probably due to its popularity didn't feel as clean or fresh as other Marriott properties.  The carpet in our room particularly could have used a good shampoo or replacement.Okay, but not great.More</t>
   </si>
   <si>
+    <t>Simon P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r284900722-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1616,9 @@
     <t>Room was very nice, clean and updated. Breakfast was also included. The Hotel is located close to a theme park, water park and Dallas Cowboy at&amp;t stadium. Friendly staff. Many restaurants near by. A very pleasant stay.More</t>
   </si>
   <si>
+    <t>dwayne v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r284882332-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1634,9 @@
     <t>We stay at this hotel for 3 days in late June. The staff is very nice the breakfast is worth the stay. The dining and serving rooms are a little on the small side for the size of the hotel. But not too too bad. Our room was very clean only issues were windows did not lock and the  bathroom vent fan did not work. This made the room uncomfortable for a short while after showers. All in all I really like.tbus place and would stay there again.More</t>
   </si>
   <si>
+    <t>Tim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r283030554-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1655,9 @@
     <t>I stayed here because it was a Marriott hotel and advertised 1 bedroom suites.  I expected s seperate bedroom like Marriott residence inn but got a studio with half a wall blocking off the bedroom. I was still very happy with everything else and the location. More</t>
   </si>
   <si>
+    <t>Mario1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r282612807-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1673,9 @@
     <t>When visiting Dallas-Worth area this is the hotel I've always stayed at.  Last time I was here was 3 years ago.  Excellent customer service, clean rooms.  Everyday it's a different breakfast and they offer a light dinner and beverages Mon thru Wed.  We enjoyed it mostly because they also have the trolley that goes by the hotel to Six Flags and the baseball park to see the Rangers.  When we stayed it was fully booked, most the time was quiet.  I will continue to come back.</t>
   </si>
   <si>
+    <t>LaredoROSE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r279151172-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1505,6 +1694,9 @@
     <t>Everything was ok except restroom toilet kept backing up. We thought it was just in our room but the others in our group had same issues. Breakfast was great except for today the previous attendants were on the ball keeping all items filled to accommodate our large group. Today everything was out the attendant was slow in filling easier items like bread or coffee.  More</t>
   </si>
   <si>
+    <t>Molly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r279041830-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1529,6 +1721,9 @@
     <t>Prime location for doing business at the convention center. Rooms were great for 2 people. Loved the couch feature, felt like 2 living spaces. As an out of towner, hotel did not advise well when power went out/ flash flood/ hurricane warning. Would have liked to know the emergency measures taken besides being told to "go sit inside your bathtub".. we were on the 3rd floor.. Other than that it did the trick.More</t>
   </si>
   <si>
+    <t>Nicole C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r278607483-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1742,9 @@
     <t>Chose this hotel based on the price and reviews.  Never Again.  Yes, this facility is close to everything ie: water park, baseball and football stadiums, and Six Flags, however, this is one of the below average facilities I've ever stayed.  The building had a mildew smell as well is the first room we were assigned.  Upon arrival into the room, there was trash everywhere; trash can, behind sofa, and under sofa bed mattress.  I tried explaining this housekeeping staff, who did not understand my English very well.  I even sprayed the room with Lysol with no effect.  In the morning I was immediately accommodated with a room change without a hitch.  I inspected the room before moving.  In the second room, the smell was not there, but the room still had trash behind the sofa and under the sofa seats.  I made the front desk aware of the trash that I found.  I moved my family despite having found the trash because this room was 100 times better than the initial room.  There was one bright spot at this facility.  The young man that manages the breakfast area, exhibited excellent customer service.  Other than that, this was not what I would expect from a facility that is associated with the Marriott name.More</t>
   </si>
   <si>
+    <t>Roel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r277330906-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1766,9 @@
     <t>This hotel was really nice. We were really close to the Rangers Stadium and to AT&amp;T Stadium where we were attending a concert. They had great breakfast and overall the hotel was clean. I strongly recommend it.More</t>
   </si>
   <si>
+    <t>ndwood22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r273160731-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1590,6 +1791,9 @@
   </si>
   <si>
     <t>Very clean and great location.  Lots of restaurants and shopping close by.  Easy to get to event location.  Friendly staff, smooth check in and check out.  Second time to stay at this hotel.  Breakfast was hot and ready with lots of choices!More</t>
+  </si>
+  <si>
+    <t>Bolter07</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r271115864-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1624,6 +1828,9 @@
 The room: the only complaint I have was the lack of open plugs for charging devices. At the Desk, I had to unplug the light...The location of this hotel is perfect if you want to go to the many attractions in the Arlington area. The front door is literally right across the street from the Six Flags water park. And within 5 minutes drive of Six Flags, Rangers Baseball and AT&amp;T stadium. The hotel is nice. The staff has been very helpful with needs of a family staying a long way from home. The fridge in the room was not working when we arrived, but within 15 minutes of us being here, they replaced it with a brand new one. I did have a couple of negatives, which is why I gave the 4 stars instead of 5. The Pool: it is a small pool, first of all. So if you are looking for a hotel with a big pool, this is not where you want to go. On top of that, while they remedied the situation quick, there were no towels as was advertised in the room. The "Hot Tub" was also not Hot, nor did it seem very clean. I feel that the pool could be maintained just a little better. To be fair, being right across the street from a water park, the pool is not the number one priority. But needs to be maintained, none-the-less. The room: the only complaint I have was the lack of open plugs for charging devices. At the Desk, I had to unplug the light in order to use my computer because the modem is also plugged in on the same spot. The bed was good, and the pull out sofa was more than enough for our two kids. It was a little difficult to walk around the room when the sofa was pulled out. All-in-all, this was a great weekend in Arlington, and the hotel really helped to make the weekend a great one. I would stay here again. Thanks! More</t>
   </si>
   <si>
+    <t>BrooksAcuff_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r270063009-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1855,9 @@
     <t>My wife and I booked a one night stay here months in advance via credit card.   We arrived home from our trip seeing a $10 charge had been place on our credit card in addition to our nightly rate.   I called the hotel directly in Arlington, Texas and was told the charge is placed to guard against incidentals WHICH WE WERE TOLD THERE WERE NONE AT CHECK OUT.   I was told that the charge should drop off in about ten days.  If not that I should contact my credit card company.   Ten days........the charge should have never been placed on my credit card in the first place.   Let me see if I have this right.   I have to diligently do the leg work to see that your immoral  practice in removed from my credit card account?   Here is an idea.  How about not scamming the honest customers you have that do not try and run off owing.   This incidental charge is placed upon your account at check in and you are not advised of it.  It will not show on your check out receipt.  This is a scam that a lot of the hotels are running currently.   Its to their advantage.   If you do not follow through to get the charge removed the chain makes an extra ten bucks on your stay.    THE WAY WE HANDLE ANY HOTEL CHAIN THAT DOES THIS SORT OF THING IS NOT TO STAY WITH...My wife and I booked a one night stay here months in advance via credit card.   We arrived home from our trip seeing a $10 charge had been place on our credit card in addition to our nightly rate.   I called the hotel directly in Arlington, Texas and was told the charge is placed to guard against incidentals WHICH WE WERE TOLD THERE WERE NONE AT CHECK OUT.   I was told that the charge should drop off in about ten days.  If not that I should contact my credit card company.   Ten days........the charge should have never been placed on my credit card in the first place.   Let me see if I have this right.   I have to diligently do the leg work to see that your immoral  practice in removed from my credit card account?   Here is an idea.  How about not scamming the honest customers you have that do not try and run off owing.   This incidental charge is placed upon your account at check in and you are not advised of it.  It will not show on your check out receipt.  This is a scam that a lot of the hotels are running currently.   Its to their advantage.   If you do not follow through to get the charge removed the chain makes an extra ten bucks on your stay.    THE WAY WE HANDLE ANY HOTEL CHAIN THAT DOES THIS SORT OF THING IS NOT TO STAY WITH THAT HOTEL CHAIN AGAIN.   Justice served!   Hyatt Place has done the same thing to us in the past.  Needless to say we have not stayed there since.  The one hotel chain that DOES NOT hit you with any charges is IHG (Holiday Inn, Crown Plaza, etc.) as far as I am aware of.   And IHG points do not expire I have found.More</t>
   </si>
   <si>
+    <t>WorfDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r261596002-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +1885,9 @@
     <t>This hotel is needs to be updated badly.  Took 5 minutes to get hot water in the shower and I never was able to get hot water in the sink.  The carpet is worn and had mysterious red stains on it in several locations.  Couch looked dirty and also has some funky looking stains. 1 TV in the room was tough to watch from bed.  WIFI was difficult to connect to.Front desk staff friendly, but seemed to be understaffed.  Overall, not a fan.More</t>
   </si>
   <si>
+    <t>Melanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r260040833-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1696,6 +1909,9 @@
     <t>The room was ok but only 1 tv in the suite so had to turn it to face the bed.  Its very close to the interstate, so it's noisy.  There wasn't a way to keep the fan running all night!  On a better note, the staff is exceptional!  The gentleman that does the breakfast during the week was great!More</t>
   </si>
   <si>
+    <t>Brownsugar1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r259236959-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1720,6 +1936,9 @@
     <t>I reserved my suite weeks in advance for a group of 10 gathering. Front desk agent gave me false advertisement to secure booking of a smoking room that could accommodate my group. I was told check in was after 12. On the check in date i found out all info given was incorrect and a cancellation fee would be charged. Room was not ready til 3pm and catered food was wasted during the wait. My african american guests were refused rooms. He then went outside to call in a disguised voice and was advised a room was available. Once he confronted the agent we were escorted off the property and false reports made by the racist agent in an attempt to cover herself. I was asked to leave at midnight and charged over $700 for a room i did not stay in. Complaints are handled by a representative Jake whose only job is to cover not to correct issues to keep this hotel integrity honest. I will never trust nor stay here again.More</t>
   </si>
   <si>
+    <t>MDDEBEACHLOVER</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r247689254-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1747,6 +1966,9 @@
     <t>Loyal Marriott family but disappointed in this experience. As others say, walls too thin to get a night's rest. Had to call hotel management one night due to loud group and same issue second night. We weren't the only room bothered. Great location for stadium and airport but not Marriott standards.More</t>
   </si>
   <si>
+    <t>Foggylimb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r247384110-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1771,6 +1993,9 @@
     <t>We love this hotel! We try to stay here every time we come to Six Flags. Spacious, clean rooms with a ceiling fan!!! The breakfast host, Mrs. Arlene, is a doll. She will go out of her way to get you anything you need. She is an asset to this company! Front desk was always very helpful also...changed our room at 3:30 in the morning because of a sick baby. Awesome hotel!More</t>
   </si>
   <si>
+    <t>Paul D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r245102174-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1789,6 +2014,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Shae D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r241881815-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2032,9 @@
     <t>Stayed here for the Cowboys game. I loved the room and the decor. The fellas at the front desk were very helpful and friendly. We had no issues with our room...breakfast was great! Road construction was very inconvenient...but not the fault of the hotel. Shuttle was a little unorganized, but I think that could be worked out. I will stay here again.</t>
   </si>
   <si>
+    <t>Gwen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r241657546-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1831,6 +2062,9 @@
     <t>This trip was our forth time to stay to attend the Cowboys on thanksgiving day. Location  is great but things have changed at spring hill, the road is still under construction over a year, I realize this is no fault of the hotel. The breakfast in the morning is always good and plentiful.       Now the rest of the story, when we arrived after an eight our drve on Tuesday evening, wifi would not work, called front desk they replied it might work later, then took forever to get hot water in the bathroom.         That night the room got very hoot during the night then better in the morning! We left for the day and upon return found the T V would blink  off and on, called the front desk, chief engineer came out and replaced cable ,  still had problem, said he would adjust box downstairs, said some channels will work!                  Called desk again they offered to change room rather then T V. We stayed in room?Approx an hour later room was hot again, called desk could not help, we are in pajamas they again offered  to change room we stayed. Later thi night found bug in bed.With no exception our 4 trip hare is our last!!!!      We hope to return to a more considerate hotel near hear , next thanksgiving for the Cowboys game. The worst experience at a Marriott any timeKMore</t>
   </si>
   <si>
+    <t>88love2travel2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r240455175-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1849,6 +2083,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>MDAggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r237040074-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1876,6 +2113,9 @@
     <t>I'm team Marriott but if you'd blindfolded me prior to entering the room, I wouldn't have guessed it was a Marriott property. Definitely needs a facelift. Seems like they tried to make some improvements but have fallen short. Wasn't the cleanest (hair on towels, counters, etc.) Thin walls but I got a decent night's rest. Late checkout. Lots of ongoing road construction; access can be tricky. I wouldn't book again.More</t>
   </si>
   <si>
+    <t>Louisjuly20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r229232770-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1903,6 +2143,9 @@
     <t>Great location.  The staff friendly and helpful.  The breakfast offering was standard and it was well stocked.  The rooms are not upscale for the price, clean and attended yes but, well you know.  Ranger baseball, Cowboy football, Six Flag rides all within a stones throw.However, while it could be temporary, the roads to this location were a  real mess and the freeways of Dallas are public nuisances, almost undrivable with construction, reconstruction and demolishment.  Forget Houston we have a problem.....it is Dallas you have a problem.More</t>
   </si>
   <si>
+    <t>Lindar125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r229210046-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2161,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>rtsuser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r214487863-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1945,6 +2191,9 @@
     <t>Stayed just one night in July, 2014.  I'm Marriott Lifetime Gold, so have a great deal of experience with all the Marriott brands and rarely post about any of them since generally I get about what I expect.  This Springhill Suites is easily the most downscale Marriott property I've seen.  Sparse and cheap furnishings.  If the Marriott sign came down and a Days Inn sign went up in its place I don't think anyone would notice.  Never entered a Marriott property where the front desk staff doesn't bother to look up or greet the guest in any way.  Disappointed in this stay.More</t>
   </si>
   <si>
+    <t>TeamAdministrator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r212099318-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1963,6 +2212,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Marcy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r207754140-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1978,6 +2230,9 @@
     <t xml:space="preserve">We had a nice, spacious room. It was comfortable and had all we needed. If we stayed longer or had  business it would be the perfect hotel. The street in front of the hotel is totally messed up. It is being redone. The continental breakfast was laid out nicely. They had a nice selection of breakfast items. The staff was ok, nothing to get excited about. Not far from the highway. We'd stay there again. </t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r201483226-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2005,6 +2260,9 @@
     <t>I read all the other comments about how dirty this hotel was, but I didn't find it that bad. Is it a tired hotel - yes. Could definitely use updating, but I didn't feel like it was too dirty. I also didn't have trouble with thin walls, and I am a light sleeper. The person at the front desk was super friendly and answered questions about time to get to the airport (not the stock answer either, he asked me a few questions to figure out when I really needed to leave).There were a few little issues - there is construction now on Lamar, which makes it a bit of a challenge, but that is temporary, so hard to rate a hotel on that. There was a little area out front for people to sit, which is kind of nice, but as I pulled up and saw a group of people with a six-pack, it was odd to have to walk by them to get in. Friendly enough, but just odd to put that right by the front door.I wasn't there for six flags, but it I could see the rides from the parking lot, so seemingly convenient for that.More</t>
   </si>
   <si>
+    <t>Inarduapetit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r200417729-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2026,6 +2284,9 @@
     <t>We just stayed at this hotel for the NCAA Championships. So you would think they would be expecting a crowd since they're very close to the stadium where the Final Four was being held (part of our decision to stay there). However, they had the front desk at check in staffed by one person who only had 4 days on the job. She was a lovely person, but overwhelmed by the situation, with no managers to be found for support. Another reason we chose to stay there was for the free shuttle service. In reality, the shuttle rarely was in service and actually didn't take people to the stadium, again the reason for us staying there. We paid 3x the typical rate, which I (somewhat) understand given the event, but for that price, I expect a certain level of service. One of my worst Marriott experiences.More</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r198797080-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2044,6 +2305,9 @@
     <t>Was on a golf trip with my son and was happy that a centrally located hotel was available on reward points.  I was very disappointed in that this hotel was not only very old on the outside, the interior was just as tired. While taking a shower the first morning I noticed lint and other "things" hanging from the exhaust fan cover - it had not been cleaned in years; that did it.  Other comments below capture some of the other issues - noisy and dusty road construction on Lamar Blvd, old fixtures, thin walls, etc. We checked out and went to another new and happily cleaner Marriott property nearby.  Though the staff at the Springhill was friendly, I called Marriott directly and they were very accommodating to making the switch.  This property, which really is in a great location, is just not up to what you expect from Marriott.More</t>
   </si>
   <si>
+    <t>angla619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r196182084-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2065,6 +2329,9 @@
     <t>We stayed here while attending a cheer competition.  We were very satisfied with our stay.  The room was clean and the staff was attentive, informative and pleasant.  Definitely worth the price and the location was very convenient to many things.  The staff was very nice about letting our kids have fun while we were there in the lobby as many of our team was staying there.  Only a couple things and they aren't a huge deal- the elevator was iffy sometimes and I wish the TVs were placed higher so that when the sofa sleeper is pulled out you can actually maneuver- but those are really not deal breakers :) Would definitely stay again if in the area.More</t>
   </si>
   <si>
+    <t>vickrob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r183269368-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2080,6 +2347,9 @@
     <t>Very friendly and helpful staff, clean, 24 hour fitness room. Very convient to Arlington ball park and stadum. Only problem was road construction had entrance blocked so it was hard to navigate at night.</t>
   </si>
   <si>
+    <t>Fabimis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r182389685-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2098,6 +2368,9 @@
     <t>To start: there was some construction on the road in front of the hotel and the temporary sign to indicate their access was very difficult to see!Second: the floor in our room was dirty with many large dark red spots (when mentioned to the manager next morning... No appologies, nothing!)Third: we asked for toothpaste: they didn't have any!Fourth: my children asked for some hot chocolate packet at breakfast since none was offered: they didn't have any!  Hotel in front 6 flags!!!!!!  Only one choice of plain tea...  One choice of cut fruits: melon which I had to throw since it didn't taste good!Fifth: the light between the beds was unplugged.... For a reason: it wouldn't work!More</t>
   </si>
   <si>
+    <t>Liz M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r178305165-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2116,6 +2389,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Roe25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r174424363-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2143,6 +2419,9 @@
     <t>Staff is very friendly I commend Springhill Suites in hiring employees with a great customer service attitude.  The complaint I have is the entire property itself.  It is old inside and out, very outdated.  i questioned myself if I am in a Marriott property because of the old lobby entrance door, the lobby, and elevator. it could have been better since the entire property is clean!  I hope they will renovate this hotel soon.  Until then, I will stay at a different Marriott property around the area.More</t>
   </si>
   <si>
+    <t>Fickes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r174233993-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2158,6 +2437,9 @@
     <t>My father, my sister and myself were in town for a weekend of baseball.  We wanted a hotel with good location to the Ballpark at Arlington, a room with 3 beds (2 and a sleeper sofa), and a fair price. Spring Hill Suites delivered on all of the above. Not only did it deliver on all of that, but the rooms were very clean and the staff was excellent! If we make the trip back to Arlington next year from Ohio I know where we will be staying.</t>
   </si>
   <si>
+    <t>juwster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r166803908-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2179,6 +2461,9 @@
     <t>We were very happy with this SpringHill Suites. The check in was great as the front desk clerk was very friendly and helpful. She voluntarily gave us a room at the end of the hall as there were several kids groups there and she did not want us near the elevator. That was the first indication of excellent service! This hotel is located very close to a Saltgrass Steakhouse, Steak and Shake Restaurant, and a few more. The hotel has a van that will take you to these locations. There are certain hours for this service so you need to check on this when you get there. There is also a shuttle stop for Six Flags as it is across the street. The hotel rooms are very clean. The room we were in had a very good design. The bath tub and toilet were in a separate room from the vanity sink and mirror. The vanity is small but I feel the other positives make up for this. There was a microwave, small sink and small fridge in the kitchen area. The way the room was designed, if I was in the vanity area getting dressed and my husband was in the living room area he could not hear me talking to him. The only thing that could have been improved was the TV. It is situated between the living room and the bedroom area. It is an awkward spot...We were very happy with this SpringHill Suites. The check in was great as the front desk clerk was very friendly and helpful. She voluntarily gave us a room at the end of the hall as there were several kids groups there and she did not want us near the elevator. That was the first indication of excellent service! This hotel is located very close to a Saltgrass Steakhouse, Steak and Shake Restaurant, and a few more. The hotel has a van that will take you to these locations. There are certain hours for this service so you need to check on this when you get there. There is also a shuttle stop for Six Flags as it is across the street. The hotel rooms are very clean. The room we were in had a very good design. The bath tub and toilet were in a separate room from the vanity sink and mirror. The vanity is small but I feel the other positives make up for this. There was a microwave, small sink and small fridge in the kitchen area. The way the room was designed, if I was in the vanity area getting dressed and my husband was in the living room area he could not hear me talking to him. The only thing that could have been improved was the TV. It is situated between the living room and the bedroom area. It is an awkward spot although I'm not sure how they could improve it. If you want this room layout ask for a room at the end of the hall. The air conditioner was wonderful!  Although the hotel was full of groups of kids the 4 days we were there, we had no problems with noise. We did not eat the breakfast.  The staff was so nice and helpful we felt welcome at this hotel. It was a great stay!More</t>
   </si>
   <si>
+    <t>jrdAustin_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r166442091-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2194,6 +2479,9 @@
     <t>We stayed for one night after a day at Six Flags.  Our room didn't look like the pictures as there was no division between kitchen/living and beds as it shows.  We somehow ended up in a handicapped accessible room and that may have changed the layout.  I was really looking forward to putting the kids to bed and still being able to watch tv.  Pool was really small and not that clean.  But the beds were comfortable and the breakfast was good.</t>
   </si>
   <si>
+    <t>Anthony N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r160851233-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2212,6 +2500,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>793BillD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r157010359-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2239,6 +2530,9 @@
     <t>We stayed here for the Sweet Sixteen - Great Eight NCAA tournament at Cowboy Stadium. Very convenient location Cowboy Stadium and Six Flags.Front desk and Courtesy Shuttle were all very friendly and accommodating.The hotel was clean and well keep, everything was in perfect working order.More</t>
   </si>
   <si>
+    <t>Caymanita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r155897192-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2266,6 +2560,9 @@
     <t>I stayed here while exhibiting at the nearby Arlington Convention Center. I had moved to this Springhill Suites from another Springhill Suites property in Grapevine and I could see a difference in level of service.  The staff at this property were still welcoming and friendly, however at the Grapevine property they really went above and beyond the call of duty. The lobby at this location was very uninviting, at the last property we congregated at the lobby, however at this location it wasn't a comfortable area and so we ended up meeting at the end of the day in my suite.  I like the suite style rooms with separate living area to the sleeping area. The breakfast included is ok; it included some fruit, yogurt, bagels, etc… One thing that bothered me is the air freshener used by housekeeping. Every night I opened the door there was an overwhelming stench of synthetic air freshener. Overall, a good experience but there is room for improvements.More</t>
   </si>
   <si>
+    <t>docB44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r153764085-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2290,6 +2587,9 @@
     <t>Not sure if it was simply a good day but the front desk reception was really good the night we checked in.  The entrance could do with some improvement though.  Our suite was large and comfortable, the decor exceptional, the sofa bed useful, Wi Fi available, coffee or tea set up.  We will stay here again.More</t>
   </si>
   <si>
+    <t>Harold R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r137677665-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2305,6 +2605,9 @@
     <t>Room was roomy and staff is very friendly and helpful.  This is a non-smoking facility, but the desk clerk gave me a room next to exit on first floor.  Lots of restaurants close by and close to ball park and 6 flags.</t>
   </si>
   <si>
+    <t>MAB82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r136693564-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2329,6 +2632,9 @@
     <t>Stayed here on business for 2 nights due to location. Have stayed in other Springhill properties, and this one seemed to fall short of what I'd expect. First I want to say the staff is excellent and very friendly. However, the lobby seemed cold and stale.......could use some pictures, etc. to make it warmer and more inviting. Also had a strong cleaner smell. Rooms were usual suite size, but didnt have presentation of other Springhill properties. Seemed like it was designed as a less expensive version. Again, the staff was excellent, and would be great for them to have a warmer and welcoming hotel.More</t>
   </si>
   <si>
+    <t>casteelmom4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r136340453-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2353,6 +2659,9 @@
     <t>I just got back from staying there for two nights. We went to six flags the shuttle was was very nice. The rooms were very clean. I will come back to this hotel again. The only thing was they had elevater trouble so you had to use the stairs and after a day at six flags you really don't want to walk up stairs.More</t>
   </si>
   <si>
+    <t>Alan N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r133125602-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2374,6 +2683,9 @@
     <t>The staff of the SpringHill Suites are typical professionals, very helpful &amp; friendly who go above &amp; beyond.  Unfortunately the same can't be said about the infrastructure.  I've been here for 3 days &amp; one of the two elevators has been down for almost the entire time - meanwhile the other elevator is so slow it is quicker to go to the stairs at the end of the building to go up &amp; down.  Ran out of milk several times in the breakfast area, have to keep asking for more but never came.  Love SpringHill Suites chain, so I'll overlook the breakfast, but the elevator.......More</t>
   </si>
   <si>
+    <t>Ajdg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r129868093-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2389,6 +2701,9 @@
     <t xml:space="preserve">Updated Springhill close to all the parks, restaurants, and stadiums!!  Great value includes hot breakfast and even dinner!!  We never stay anywhere else! </t>
   </si>
   <si>
+    <t>masterjohnson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r124205176-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2407,6 +2722,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>jpb7428</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r115579960-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2428,6 +2746,9 @@
     <t>We have stayed at several Springhill Suites around the country (10 or more) and were disappointed to find that this Springhill is actually a renovated older hotel (maybe a Fairfield).  The hotel room did not have the typical 2 bathrooms which is one of the big reasons we stayed there.  We were told on the phone that the queen sofa bed was a new kind and was very comfortable - it was as uncomfortable as the typical sofa bed.  My young son didn't seem to mind though.  I didn't have much interaction with the staff so I cannot comment on that.  The breakfast was fine though no fresh cut fruit was disappointing.  It was very crowded at breakfast.  The breakfast serving area was too small and there wasn't enough seating.  They shouldn't put the waffle maker in the same line with the rest of the food.  It just slows everyone down who is not trying to make a waffle.  The TV in the room was fine, good selection of channels.  The bed was fine.  The pool was very small (too small for an adult to enjoy with all the kids at the hotel).  The hotel has a very good location.  Across the road from the water park and very close to Six Flags, Cowboys stadium, Rangers stadium, and the convention center. It was priced right.More</t>
   </si>
   <si>
+    <t>sunnyosage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r115060461-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2443,6 +2764,9 @@
     <t>The room was nice, we all enjoyed the hot breakfast.  It was busy but the staff kept it well stocked.  It was in walking distance to Hurricane Harbor.  Ponca City, Ok</t>
   </si>
   <si>
+    <t>newbutterfly13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r104941564-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2464,6 +2788,9 @@
     <t>I stayed here for one night, unexpectadly, after having my flight cancelled out of Dallas.   The hotel is designed similarly to other Spring Hill Suites, with a beautiful lobby and very colorful, coordinated rooms.  However, some of finishes in the room were of very basic quality, like the kitchette and bathroom counter area.  More than useable but not as asthetically pleasing as other Spring Hill Suites.  The walls are also very thin and hallway chatter and door opening/closings can be easily heard inside the room.  The A/C also ran really loudly, forcing you to turn the TV way up in order to hear over it.  The bed was reasonably comfortable but more on the softer side.  The staff is very friendly and helpful and the breakfast had plenty of variety.  This hotel is directly across the street from Six Flags.More</t>
   </si>
   <si>
+    <t>banjoman51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r86745081-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2485,6 +2812,9 @@
     <t>I stayed here with my GF because we needed a kid-free night out  and didn't have time to check any reviews...my mistake but we stayed at another Springwood Marriot in Houston and it was far nicer at tje same price so I expected a lot more.  This one is nowhere near worth the $105 I paid ($89 rack rate).  This hotel should be priced at $49, not $89.  You can stay at the Hampton 1/2 a block away on Lamar which is MUCH nicer, has a MUCH larger room and MUCH better ammenities for abot $15 more.  The "suite" is smaller than most normal sized hotel rooms at this price range, the furniture is hideous looking, ugly orange and puke green and it didn't even match itself.  Carpet needs cleaning.  It looks like they bought out another hotels auction junk to furnish this place.  The bathroom is so ridiculously small you can sit on the throne and put your feet on the opposite wall, and you literally have to step over or around the commode to get in the shower which is also to small.  Few towels, few and cheapo toiletries, an inconvenient arrnagement where what looks like a 15 year old TV stradled both rooms and gets in the way as you walk.  Front desk guy was not very helpful when I had a problem and said, "sorry about that"...drapes in the window don't close properly and let the...I stayed here with my GF because we needed a kid-free night out  and didn't have time to check any reviews...my mistake but we stayed at another Springwood Marriot in Houston and it was far nicer at tje same price so I expected a lot more.  This one is nowhere near worth the $105 I paid ($89 rack rate).  This hotel should be priced at $49, not $89.  You can stay at the Hampton 1/2 a block away on Lamar which is MUCH nicer, has a MUCH larger room and MUCH better ammenities for abot $15 more.  The "suite" is smaller than most normal sized hotel rooms at this price range, the furniture is hideous looking, ugly orange and puke green and it didn't even match itself.  Carpet needs cleaning.  It looks like they bought out another hotels auction junk to furnish this place.  The bathroom is so ridiculously small you can sit on the throne and put your feet on the opposite wall, and you literally have to step over or around the commode to get in the shower which is also to small.  Few towels, few and cheapo toiletries, an inconvenient arrnagement where what looks like a 15 year old TV stradled both rooms and gets in the way as you walk.  Front desk guy was not very helpful when I had a problem and said, "sorry about that"...drapes in the window don't close properly and let the light in, waking you up early whether you want to or not...save your money and go to Motel 6 if this is what you're satisified with. The only positive was a decent breakfast and even that had drawbacks...sausage was barely cooked it the eggs were fake.  We certainly won't be back here again...very dissapointing for a flagship brand hotel to carry this poor of a property.  Marriot should be ashamed of this place.More</t>
   </si>
   <si>
+    <t>EastTexan1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r77193760-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2500,6 +2830,9 @@
     <t>Real disappointed at this Marriott and the recommendation of this facility from Marriott rewards.   I should have read the reviews before agreeing to this.  The mattress is very old and hard. They have the old style window air conditioner that needs repair. Very odd room with 80 style TV at the corner of the bed.  I really can not believe they call this a Marriott.</t>
   </si>
   <si>
+    <t>travelinglou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r65733085-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2521,6 +2854,9 @@
     <t>This place is just okay.  It's close to Six Flags, the Rangers stadium, etc, has a great continental breakfast; clean and neat; nice pool/hot tub area.  The problem is that It's just not worth $110 a night.  The cons we encountered were the room size (very oddly shaped) and decor.  It was clean and neat but the furniture was very dated and shabby.  The TV was like 1990's style and the fridge and a/c made noises all night.  The bed was also one of the most uncomfortable I've slept on in a long time.  One other thing--I was showering when the maid came by one morning so my hubby told her not to worry about coming in to clean.  I just assumed someone would be by later on, but they didn't come.  That night, the ONE small trash can in the room was overflowing so I took it to the front desk and asked what I should do with it and for another bag.  She told me where the dumpster was located.  WHAT?!  Like they didn't have a big trash can to put it in up front.  That's the first time I've ever had to take my trash to the hotel dumpster!  Stay at the LaQuinta ($90) next to Six Flags.  We've stayed there before and they have nice, spacious rooms/baths, great breakfasts and pool, etc.More</t>
   </si>
   <si>
+    <t>3rdWorldFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r25210358-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2539,6 +2875,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>Dede3901</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r19075406-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2557,6 +2896,9 @@
     <t>If you are looking for friendly staff, good breakfast food and a comfy bed, this is the place. I liked the microwave, sink and fridge setup, and the bathroom is good. The lighting in the vanity area was a bit dim. The place was clean and comfortable for this price range. It's not the W, but for a family or couple this is great! There were tons of kids...but that's to be expected since Arlington is a family oriented place.  There is a free trolley that takes you to the parks, so you wont have to worry about paying for parking at Six Flags or Hurricane Harbor, or the ballpark!More</t>
   </si>
   <si>
+    <t>SCTrekkerMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r18652779-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2575,6 +2917,9 @@
     <t>July 2008</t>
   </si>
   <si>
+    <t>Modconjon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r8394276-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2596,6 +2941,9 @@
     <t>My wife and I stayed at this hotel for one night to see a concert at the Nokia Theater. We used Marriott Rewards points so I cannot comment on the cost.The staff was pleasant and efficient with one issue - it took too long to deliver foam pillows when requested.The free breakfast we never got to try as it was closed down before we got to the dining area.The room was clean, spacious and laid out about as well as any budget suite hotel. The beds were very comfortable as was the other furniture. The bathroom was clean and there were plenty of towels.The overall result was a pleasant one-night stay.Recommended.More</t>
   </si>
   <si>
+    <t>Debra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r8362800-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2614,6 +2962,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>sfencer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r8207026-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2635,6 +2986,9 @@
     <t>I had to work in Arlington, and stayed here for 1/2 of my trip.  Being in late June, there were kids constantly running up and down the halls and pounding on walls.  Breakfast between 7-7:45 was inundated with kids.  Come on parents!  This is when us business people get to eat on weekdays.  Let them eat after 8AM when we're gone.  I'd recommend the staff put business travelers in a different part of the hotel from families, as I talked to other business travelers who had similar complaints.Unless you are going to SIx Flags, you need a car to get food.  The dinner hour did have some food, but nothing really substantial.  Free cheap beer and wine.Staff was friendly and the room was clean.  I ended up moving to the Hilton which was quite nice and quiet.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r5421551-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2653,6 +3007,9 @@
     <t>Very pleased with this hotel and already made reservation to go back.  The hotel was very clean, especially our room which is the most important part.  Family of four with two kids and the kids love it.  The swimming pool was small but they had lots of fun.  The breakfast was very good and the lady that made breakfast was outstanding, always checking and restocking and I mean it was busy.  The rest of the hotel staff from the front desk to the workers on the floor were very nice.  Comfortable beds and didn't hear any noise from other rooms.  The service you get from the trolley was very good also, we took advantage of it to go to Six Flags and The Ballpark.More</t>
   </si>
   <si>
+    <t>gbthomas66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r5204584-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2669,6 +3026,9 @@
   </si>
   <si>
     <t>We stayed here for a quick weekend getaway in May 2006.  We enjoyed it thoroughly.  Our room was spacious and clean.  As with other "Suite" hotels, the one room suites are not truly suites.  The sitting area is separated from the sleeping area by a half wall.  But that's still better than the alternative (esp. if you have young ones).  I thought the breakfast area was large compared to other hotels of this category.  I counted 16 tables (most of them seated 4, some only 2).  We had no trouble finding a place to sit.  And the food was fine.  Hot and cold items.  Staff was friendly and helpful.  Free high speed wireless access in the room.  Pool area (outdoor) was nice too.  Would definitely stay here again.  It's very close to Hurricane Harbor (walking distance) and Six Flaggs (short drive).  Several decent restaurants within a mile.More</t>
+  </si>
+  <si>
+    <t>colmar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109522-r3651246-SpringHill_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -3188,43 +3548,47 @@
       <c r="A2" t="n">
         <v>34624</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3238,50 +3602,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34624</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>42254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3297,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34624</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>15449</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -3366,50 +3738,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34624</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>33817</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3423,50 +3799,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34624</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177517</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3480,50 +3860,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34624</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3537,50 +3921,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34624</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177518</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3596,56 +3984,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34624</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177519</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3659,50 +4051,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34624</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177520</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3722,50 +4118,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34624</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3777,56 +4177,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34624</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>15522</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3838,56 +4242,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34624</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>68254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3905,56 +4313,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34624</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>29885</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3970,56 +4382,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34624</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177522</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4037,56 +4453,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34624</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>95699</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>152</v>
       </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>139</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4100,50 +4520,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34624</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -4163,50 +4587,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34624</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177523</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4220,50 +4648,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34624</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>408</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4283,50 +4715,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34624</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177524</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4346,50 +4782,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34624</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4409,50 +4849,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34624</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>10061</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4470,56 +4914,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="X22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34624</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4539,50 +4987,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34624</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177525</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -4600,56 +5052,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="X24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34624</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177526</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4669,50 +5125,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34624</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>20841</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4732,50 +5192,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34624</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>14812</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4789,50 +5253,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34624</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177527</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4848,56 +5316,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="X28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34624</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177528</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>235</v>
       </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>211</v>
-      </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4913,56 +5385,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34624</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177529</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4974,56 +5450,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="X30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34624</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177530</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5039,56 +5519,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="X31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34624</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>39943</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -5108,50 +5592,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34624</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>5794</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5171,50 +5659,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34624</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177531</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5228,50 +5720,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34624</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5287,56 +5783,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34624</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>2321</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5348,56 +5848,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Y36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34624</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177533</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5413,56 +5917,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34624</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>20477</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5482,50 +5990,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34624</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177534</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5541,56 +6053,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="X39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34624</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177535</v>
+      </c>
+      <c r="C40" t="s">
+        <v>345</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5608,56 +6124,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="X40" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34624</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177536</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5677,50 +6197,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34624</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177537</v>
+      </c>
+      <c r="C42" t="s">
+        <v>358</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5738,50 +6262,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34624</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177538</v>
+      </c>
+      <c r="C43" t="s">
+        <v>364</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5799,50 +6327,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34624</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>177539</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5854,56 +6386,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="X44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="Y44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34624</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>381</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5915,56 +6451,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="X45" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="Y45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34624</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177540</v>
+      </c>
+      <c r="C46" t="s">
+        <v>388</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="J46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="K46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5982,50 +6522,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34624</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177541</v>
+      </c>
+      <c r="C47" t="s">
+        <v>396</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6037,56 +6581,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="X47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="Y47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34624</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>177542</v>
+      </c>
+      <c r="C48" t="s">
+        <v>405</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="J48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="K48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6104,50 +6652,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34624</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>47120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>413</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6167,50 +6719,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>34624</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177543</v>
+      </c>
+      <c r="C50" t="s">
+        <v>420</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6222,56 +6778,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="X50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="Y50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34624</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>19916</v>
+      </c>
+      <c r="C51" t="s">
+        <v>430</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="J51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="K51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="L51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6289,56 +6849,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="X51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="Y51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34624</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>38630</v>
+      </c>
+      <c r="C52" t="s">
+        <v>439</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="K52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6354,56 +6918,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="X52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34624</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177544</v>
+      </c>
+      <c r="C53" t="s">
+        <v>448</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6421,56 +6989,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="X53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="Y53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34624</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177545</v>
+      </c>
+      <c r="C54" t="s">
+        <v>458</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6482,56 +7054,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="X54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="Y54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34624</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177546</v>
+      </c>
+      <c r="C55" t="s">
+        <v>467</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="K55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="L55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6549,56 +7125,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="X55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="Y55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34624</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C56" t="s">
+        <v>477</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6610,56 +7190,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="X56" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="Y56" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34624</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177547</v>
+      </c>
+      <c r="C57" t="s">
+        <v>486</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="J57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6677,56 +7261,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="X57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="Y57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34624</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>979</v>
+      </c>
+      <c r="C58" t="s">
+        <v>495</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="J58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6744,56 +7332,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="X58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="Y58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34624</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177548</v>
+      </c>
+      <c r="C59" t="s">
+        <v>504</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="J59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="K59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6811,56 +7403,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="X59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="Y59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34624</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>79945</v>
+      </c>
+      <c r="C60" t="s">
+        <v>513</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="J60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="K60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="L60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6876,56 +7472,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="X60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="Y60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34624</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177549</v>
+      </c>
+      <c r="C61" t="s">
+        <v>522</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="J61" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="L61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6937,56 +7537,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="X61" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="Y61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34624</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>31308</v>
+      </c>
+      <c r="C62" t="s">
+        <v>528</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="J62" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="K62" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6998,56 +7602,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="X62" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="Y62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34624</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177550</v>
+      </c>
+      <c r="C63" t="s">
+        <v>535</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="J63" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="K63" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="L63" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7067,50 +7675,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34624</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177551</v>
+      </c>
+      <c r="C64" t="s">
+        <v>541</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="J64" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="K64" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="L64" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7122,56 +7734,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="X64" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="Y64" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>34624</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>32801</v>
+      </c>
+      <c r="C65" t="s">
+        <v>548</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="J65" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="K65" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="L65" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -7189,56 +7805,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="X65" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="Y65" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>34624</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>7431</v>
+      </c>
+      <c r="C66" t="s">
+        <v>557</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="J66" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="L66" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -7254,56 +7874,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="X66" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="Y66" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>34624</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177552</v>
+      </c>
+      <c r="C67" t="s">
+        <v>564</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="J67" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="K67" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="L67" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7321,56 +7945,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="X67" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="Y67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>34624</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177553</v>
+      </c>
+      <c r="C68" t="s">
+        <v>572</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="J68" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="K68" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="L68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="O68" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7386,47 +8014,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="X68" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="Y68" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>34624</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177554</v>
+      </c>
+      <c r="C69" t="s">
+        <v>581</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="J69" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="K69" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="L69" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
@@ -7443,56 +8075,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="X69" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="Y69" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>34624</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177555</v>
+      </c>
+      <c r="C70" t="s">
+        <v>590</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="O70" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7508,56 +8144,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="X70" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Y70" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>34624</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177556</v>
+      </c>
+      <c r="C71" t="s">
+        <v>599</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="K71" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="L71" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="O71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7575,56 +8215,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="X71" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="Y71" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>34624</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>8751</v>
+      </c>
+      <c r="C72" t="s">
+        <v>609</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="J72" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="K72" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="O72" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -7642,56 +8286,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="X72" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="Y72" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>34624</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177557</v>
+      </c>
+      <c r="C73" t="s">
+        <v>617</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="J73" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="K73" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="L73" t="s">
-        <v>550</v>
+        <v>622</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7703,56 +8351,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="X73" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="Y73" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>34624</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177558</v>
+      </c>
+      <c r="C74" t="s">
+        <v>626</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="J74" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="K74" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="L74" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="O74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7770,47 +8422,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
       <c r="X74" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="Y74" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>34624</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177559</v>
+      </c>
+      <c r="C75" t="s">
+        <v>636</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="J75" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="K75" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="L75" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7837,56 +8493,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="X75" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="Y75" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>34624</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>9169</v>
+      </c>
+      <c r="C76" t="s">
+        <v>645</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="J76" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="L76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7904,41 +8564,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>34624</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177560</v>
+      </c>
+      <c r="C77" t="s">
+        <v>652</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="J77" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="K77" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="L77" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -7967,50 +8631,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>34624</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177561</v>
+      </c>
+      <c r="C78" t="s">
+        <v>658</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="J78" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="K78" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="L78" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="O78" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8028,56 +8696,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="X78" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="Y78" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>34624</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C79" t="s">
+        <v>668</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="J79" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="K79" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="L79" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="O79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8095,50 +8767,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>34624</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177562</v>
+      </c>
+      <c r="C80" t="s">
+        <v>675</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="J80" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="K80" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="L80" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="O80" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -8156,56 +8832,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="X80" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="Y80" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>34624</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177563</v>
+      </c>
+      <c r="C81" t="s">
+        <v>685</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="J81" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="K81" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="L81" t="s">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>611</v>
+        <v>691</v>
       </c>
       <c r="O81" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -8223,56 +8903,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>612</v>
+        <v>692</v>
       </c>
       <c r="X81" t="s">
-        <v>613</v>
+        <v>693</v>
       </c>
       <c r="Y81" t="s">
-        <v>614</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>34624</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177564</v>
+      </c>
+      <c r="C82" t="s">
+        <v>695</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="J82" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="K82" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="L82" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -8292,50 +8976,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>34624</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>177565</v>
+      </c>
+      <c r="C83" t="s">
+        <v>701</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="J83" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="K83" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
       <c r="L83" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="O83" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="n">
@@ -8353,56 +9041,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="X83" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="Y83" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>34624</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177566</v>
+      </c>
+      <c r="C84" t="s">
+        <v>711</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>629</v>
+        <v>712</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
       <c r="J84" t="s">
-        <v>631</v>
+        <v>714</v>
       </c>
       <c r="K84" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="L84" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="O84" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8426,41 +9118,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>34624</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177567</v>
+      </c>
+      <c r="C85" t="s">
+        <v>718</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="J85" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="K85" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="L85" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8479,50 +9175,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>34624</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>724</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="J86" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
       <c r="K86" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="L86" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>645</v>
+        <v>730</v>
       </c>
       <c r="O86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8544,56 +9244,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="X86" t="s">
-        <v>647</v>
+        <v>732</v>
       </c>
       <c r="Y86" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>34624</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177568</v>
+      </c>
+      <c r="C87" t="s">
+        <v>734</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>650</v>
+        <v>736</v>
       </c>
       <c r="J87" t="s">
-        <v>651</v>
+        <v>737</v>
       </c>
       <c r="K87" t="s">
-        <v>652</v>
+        <v>738</v>
       </c>
       <c r="L87" t="s">
-        <v>653</v>
+        <v>739</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -8617,50 +9321,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>34624</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C88" t="s">
+        <v>742</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="J88" t="s">
-        <v>658</v>
+        <v>745</v>
       </c>
       <c r="K88" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
       <c r="L88" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>645</v>
+        <v>730</v>
       </c>
       <c r="O88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="n">
@@ -8682,50 +9390,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>34624</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>16965</v>
+      </c>
+      <c r="C89" t="s">
+        <v>749</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>663</v>
+        <v>751</v>
       </c>
       <c r="J89" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="K89" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="L89" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>667</v>
+        <v>755</v>
       </c>
       <c r="O89" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8749,41 +9461,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>34624</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177569</v>
+      </c>
+      <c r="C90" t="s">
+        <v>757</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="J90" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="K90" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="L90" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
@@ -8812,41 +9528,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>34624</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177570</v>
+      </c>
+      <c r="C91" t="s">
+        <v>763</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="J91" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="K91" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="L91" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
@@ -8875,50 +9595,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>34624</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>20098</v>
+      </c>
+      <c r="C92" t="s">
+        <v>770</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>680</v>
+        <v>771</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>681</v>
+        <v>772</v>
       </c>
       <c r="J92" t="s">
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="K92" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="L92" t="s">
-        <v>684</v>
+        <v>775</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8942,50 +9666,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>684</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>34624</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>177571</v>
+      </c>
+      <c r="C93" t="s">
+        <v>777</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>686</v>
+        <v>778</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>687</v>
+        <v>779</v>
       </c>
       <c r="J93" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="K93" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="L93" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="O93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9007,47 +9735,51 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="X93" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="Y93" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>34624</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>177572</v>
+      </c>
+      <c r="C94" t="s">
+        <v>787</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>695</v>
+        <v>788</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="J94" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="K94" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="L94" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -9076,50 +9808,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>34624</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>17849</v>
+      </c>
+      <c r="C95" t="s">
+        <v>793</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>700</v>
+        <v>794</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="J95" t="s">
-        <v>702</v>
+        <v>796</v>
       </c>
       <c r="K95" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="L95" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="O95" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9143,50 +9879,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>34624</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177573</v>
+      </c>
+      <c r="C96" t="s">
+        <v>801</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>707</v>
+        <v>802</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>708</v>
+        <v>803</v>
       </c>
       <c r="J96" t="s">
-        <v>709</v>
+        <v>804</v>
       </c>
       <c r="K96" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="L96" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="O96" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9208,50 +9948,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>34624</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>116554</v>
+      </c>
+      <c r="C97" t="s">
+        <v>807</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>712</v>
+        <v>808</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>713</v>
+        <v>809</v>
       </c>
       <c r="J97" t="s">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="K97" t="s">
-        <v>715</v>
+        <v>811</v>
       </c>
       <c r="L97" t="s">
-        <v>716</v>
+        <v>812</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="O97" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9275,50 +10019,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>716</v>
+        <v>812</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>34624</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177574</v>
+      </c>
+      <c r="C98" t="s">
+        <v>814</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>718</v>
+        <v>815</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>719</v>
+        <v>816</v>
       </c>
       <c r="J98" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="K98" t="s">
-        <v>721</v>
+        <v>818</v>
       </c>
       <c r="L98" t="s">
-        <v>722</v>
+        <v>819</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>723</v>
+        <v>820</v>
       </c>
       <c r="O98" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9340,56 +10088,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>724</v>
+        <v>821</v>
       </c>
       <c r="X98" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="Y98" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>34624</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>177575</v>
+      </c>
+      <c r="C99" t="s">
+        <v>824</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="J99" t="s">
-        <v>729</v>
+        <v>827</v>
       </c>
       <c r="K99" t="s">
-        <v>730</v>
+        <v>828</v>
       </c>
       <c r="L99" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="O99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9411,56 +10163,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="X99" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="Y99" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>34624</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>177576</v>
+      </c>
+      <c r="C100" t="s">
+        <v>834</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>736</v>
+        <v>835</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>737</v>
+        <v>836</v>
       </c>
       <c r="J100" t="s">
-        <v>738</v>
+        <v>837</v>
       </c>
       <c r="K100" t="s">
-        <v>739</v>
+        <v>838</v>
       </c>
       <c r="L100" t="s">
-        <v>740</v>
+        <v>839</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>723</v>
+        <v>820</v>
       </c>
       <c r="O100" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9482,56 +10238,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="X100" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="Y100" t="s">
-        <v>743</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>34624</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>6996</v>
+      </c>
+      <c r="C101" t="s">
+        <v>843</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>744</v>
+        <v>844</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>745</v>
+        <v>845</v>
       </c>
       <c r="J101" t="s">
-        <v>746</v>
+        <v>846</v>
       </c>
       <c r="K101" t="s">
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="L101" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="O101" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -9545,50 +10305,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>34624</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>177577</v>
+      </c>
+      <c r="C102" t="s">
+        <v>849</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>750</v>
+        <v>851</v>
       </c>
       <c r="J102" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="K102" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="L102" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="O102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9610,47 +10374,51 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>754</v>
+        <v>855</v>
       </c>
       <c r="X102" t="s">
-        <v>755</v>
+        <v>856</v>
       </c>
       <c r="Y102" t="s">
-        <v>756</v>
+        <v>857</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>34624</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>177578</v>
+      </c>
+      <c r="C103" t="s">
+        <v>858</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>757</v>
+        <v>859</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="J103" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="K103" t="s">
-        <v>760</v>
+        <v>862</v>
       </c>
       <c r="L103" t="s">
-        <v>761</v>
+        <v>863</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
@@ -9677,56 +10445,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>762</v>
+        <v>864</v>
       </c>
       <c r="X103" t="s">
-        <v>763</v>
+        <v>865</v>
       </c>
       <c r="Y103" t="s">
-        <v>764</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>34624</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>105890</v>
+      </c>
+      <c r="C104" t="s">
+        <v>867</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>765</v>
+        <v>868</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="J104" t="s">
-        <v>767</v>
+        <v>870</v>
       </c>
       <c r="K104" t="s">
-        <v>768</v>
+        <v>871</v>
       </c>
       <c r="L104" t="s">
-        <v>769</v>
+        <v>872</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>770</v>
+        <v>873</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9748,47 +10520,51 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>754</v>
+        <v>855</v>
       </c>
       <c r="X104" t="s">
-        <v>755</v>
+        <v>856</v>
       </c>
       <c r="Y104" t="s">
-        <v>771</v>
+        <v>874</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>34624</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>177579</v>
+      </c>
+      <c r="C105" t="s">
+        <v>875</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>773</v>
+        <v>877</v>
       </c>
       <c r="J105" t="s">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c r="K105" t="s">
-        <v>775</v>
+        <v>879</v>
       </c>
       <c r="L105" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9817,50 +10593,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>34624</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>177580</v>
+      </c>
+      <c r="C106" t="s">
+        <v>881</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>778</v>
+        <v>883</v>
       </c>
       <c r="J106" t="s">
-        <v>779</v>
+        <v>884</v>
       </c>
       <c r="K106" t="s">
-        <v>780</v>
+        <v>885</v>
       </c>
       <c r="L106" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>782</v>
+        <v>887</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9884,50 +10664,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>34624</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>177581</v>
+      </c>
+      <c r="C107" t="s">
+        <v>888</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>784</v>
+        <v>890</v>
       </c>
       <c r="J107" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
       <c r="K107" t="s">
-        <v>786</v>
+        <v>892</v>
       </c>
       <c r="L107" t="s">
-        <v>787</v>
+        <v>893</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>788</v>
+        <v>894</v>
       </c>
       <c r="O107" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9945,50 +10729,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>789</v>
+        <v>895</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>34624</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>177582</v>
+      </c>
+      <c r="C108" t="s">
+        <v>896</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>790</v>
+        <v>897</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="J108" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="K108" t="s">
-        <v>793</v>
+        <v>900</v>
       </c>
       <c r="L108" t="s">
-        <v>794</v>
+        <v>901</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>788</v>
+        <v>894</v>
       </c>
       <c r="O108" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10008,50 +10796,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>794</v>
+        <v>901</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>34624</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>71974</v>
+      </c>
+      <c r="C109" t="s">
+        <v>902</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>795</v>
+        <v>903</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>796</v>
+        <v>904</v>
       </c>
       <c r="J109" t="s">
-        <v>797</v>
+        <v>905</v>
       </c>
       <c r="K109" t="s">
-        <v>798</v>
+        <v>906</v>
       </c>
       <c r="L109" t="s">
-        <v>799</v>
+        <v>907</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>800</v>
+        <v>908</v>
       </c>
       <c r="O109" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10073,50 +10865,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>801</v>
+        <v>909</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>34624</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>177583</v>
+      </c>
+      <c r="C110" t="s">
+        <v>910</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>802</v>
+        <v>911</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>803</v>
+        <v>912</v>
       </c>
       <c r="J110" t="s">
-        <v>804</v>
+        <v>913</v>
       </c>
       <c r="K110" t="s">
-        <v>805</v>
+        <v>914</v>
       </c>
       <c r="L110" t="s">
-        <v>806</v>
+        <v>915</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>807</v>
+        <v>916</v>
       </c>
       <c r="O110" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -10140,41 +10936,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>808</v>
+        <v>917</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>34624</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>177584</v>
+      </c>
+      <c r="C111" t="s">
+        <v>918</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>809</v>
+        <v>919</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>810</v>
+        <v>920</v>
       </c>
       <c r="J111" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="K111" t="s">
-        <v>812</v>
+        <v>922</v>
       </c>
       <c r="L111" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
@@ -10203,50 +11003,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>34624</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>177585</v>
+      </c>
+      <c r="C112" t="s">
+        <v>924</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>814</v>
+        <v>925</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>815</v>
+        <v>926</v>
       </c>
       <c r="J112" t="s">
-        <v>816</v>
+        <v>927</v>
       </c>
       <c r="K112" t="s">
-        <v>817</v>
+        <v>928</v>
       </c>
       <c r="L112" t="s">
-        <v>818</v>
+        <v>929</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>819</v>
+        <v>930</v>
       </c>
       <c r="O112" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P112" t="n">
         <v>2</v>
@@ -10270,50 +11074,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>820</v>
+        <v>931</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>34624</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>177586</v>
+      </c>
+      <c r="C113" t="s">
+        <v>932</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>822</v>
+        <v>934</v>
       </c>
       <c r="J113" t="s">
-        <v>823</v>
+        <v>935</v>
       </c>
       <c r="K113" t="s">
-        <v>824</v>
+        <v>936</v>
       </c>
       <c r="L113" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>826</v>
+        <v>938</v>
       </c>
       <c r="O113" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10337,41 +11145,45 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>34624</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>177587</v>
+      </c>
+      <c r="C114" t="s">
+        <v>939</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>827</v>
+        <v>940</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>828</v>
+        <v>941</v>
       </c>
       <c r="J114" t="s">
-        <v>829</v>
+        <v>942</v>
       </c>
       <c r="K114" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
       <c r="L114" t="s">
-        <v>831</v>
+        <v>944</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
@@ -10400,50 +11212,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>832</v>
+        <v>945</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>34624</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>177588</v>
+      </c>
+      <c r="C115" t="s">
+        <v>946</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>833</v>
+        <v>947</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>834</v>
+        <v>948</v>
       </c>
       <c r="J115" t="s">
-        <v>835</v>
+        <v>949</v>
       </c>
       <c r="K115" t="s">
-        <v>836</v>
+        <v>950</v>
       </c>
       <c r="L115" t="s">
-        <v>837</v>
+        <v>951</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>838</v>
+        <v>952</v>
       </c>
       <c r="O115" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10467,50 +11283,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>837</v>
+        <v>951</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>34624</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>177589</v>
+      </c>
+      <c r="C116" t="s">
+        <v>953</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>839</v>
+        <v>954</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>840</v>
+        <v>955</v>
       </c>
       <c r="J116" t="s">
-        <v>841</v>
+        <v>956</v>
       </c>
       <c r="K116" t="s">
-        <v>842</v>
+        <v>957</v>
       </c>
       <c r="L116" t="s">
-        <v>843</v>
+        <v>958</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>844</v>
+        <v>959</v>
       </c>
       <c r="O116" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P116" t="s"/>
       <c r="Q116" t="n">
@@ -10532,50 +11352,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>845</v>
+        <v>960</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>34624</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>15714</v>
+      </c>
+      <c r="C117" t="s">
+        <v>961</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>846</v>
+        <v>962</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>847</v>
+        <v>963</v>
       </c>
       <c r="J117" t="s">
-        <v>848</v>
+        <v>964</v>
       </c>
       <c r="K117" t="s">
-        <v>849</v>
+        <v>965</v>
       </c>
       <c r="L117" t="s">
-        <v>850</v>
+        <v>966</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>851</v>
+        <v>967</v>
       </c>
       <c r="O117" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -10599,50 +11423,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>850</v>
+        <v>966</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>34624</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>177590</v>
+      </c>
+      <c r="C118" t="s">
+        <v>968</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>852</v>
+        <v>969</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>853</v>
+        <v>970</v>
       </c>
       <c r="J118" t="s">
-        <v>854</v>
+        <v>971</v>
       </c>
       <c r="K118" t="s">
-        <v>855</v>
+        <v>972</v>
       </c>
       <c r="L118" t="s">
-        <v>856</v>
+        <v>973</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
       </c>
       <c r="N118" t="s">
-        <v>857</v>
+        <v>974</v>
       </c>
       <c r="O118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -10666,41 +11494,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>858</v>
+        <v>975</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>34624</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>976</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>859</v>
+        <v>977</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>860</v>
+        <v>978</v>
       </c>
       <c r="J119" t="s">
-        <v>861</v>
+        <v>979</v>
       </c>
       <c r="K119" t="s">
-        <v>862</v>
+        <v>980</v>
       </c>
       <c r="L119" t="s">
-        <v>863</v>
+        <v>981</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
@@ -10719,41 +11551,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>864</v>
+        <v>982</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>34624</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>177591</v>
+      </c>
+      <c r="C120" t="s">
+        <v>983</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>865</v>
+        <v>984</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>866</v>
+        <v>985</v>
       </c>
       <c r="J120" t="s">
-        <v>867</v>
+        <v>986</v>
       </c>
       <c r="K120" t="s">
-        <v>868</v>
+        <v>987</v>
       </c>
       <c r="L120" t="s">
-        <v>869</v>
+        <v>988</v>
       </c>
       <c r="M120" t="n">
         <v>4</v>
@@ -10780,41 +11616,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>870</v>
+        <v>989</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>34624</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>177592</v>
+      </c>
+      <c r="C121" t="s">
+        <v>990</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>871</v>
+        <v>991</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>872</v>
+        <v>992</v>
       </c>
       <c r="J121" t="s">
-        <v>873</v>
+        <v>993</v>
       </c>
       <c r="K121" t="s">
-        <v>874</v>
+        <v>994</v>
       </c>
       <c r="L121" t="s">
-        <v>875</v>
+        <v>995</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -10841,7 +11681,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>875</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
